--- a/data/trans_camb/P12B1_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>61,95</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>63,55</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,77</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-52,94</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-29,67</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,02</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,19</t>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 89,51</t>
+          <t>0,57; 7,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 92,99</t>
+          <t>0,41; 9,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 75,6</t>
+          <t>1,19; 11,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 26,39</t>
+          <t>-6,91; 7,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-63,57; 52,17</t>
+          <t>-2,21; 10,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-77,37; 39,42</t>
+          <t>-4,08; 0,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 66,15</t>
+          <t>-2,31; 3,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 73,54</t>
+          <t>-3,02; 2,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 49,07</t>
+          <t>-1,58; 5,57</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 3,7</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 3,1</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 5,28</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 6,05</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 5,82</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 6,23</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>486,31%</t>
+          <t>496,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>498,9%</t>
+          <t>581,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>257,23%</t>
+          <t>773,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-72,76%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,59%</t>
+          <t>111,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-40,78%</t>
+          <t>-76,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>130,42%</t>
+          <t>-23,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>95,29%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-18,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>85,88%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>183,67%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>199,86%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>32,41%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>49,63%</t>
         </is>
       </c>
     </row>
@@ -806,32 +944,62 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; inf</t>
+          <t>-78,01; 282,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,53; 163,04</t>
+          <t>-75,81; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,7; 102,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 851,59</t>
+          <t>-77,11; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 830,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-52,67; 584,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 527,61</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-58,56; 647,33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-23,16; 1096,46</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-44,49; 1573,43</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-60,23; 320,15</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-67,18; 413,32</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-33,76</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-16,69</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-44,88</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-27,16</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,86</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,77</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-31,48</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-12,87</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-28,54</t>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-67,82; -1,6</t>
+          <t>-5,48; 0,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 33,46</t>
+          <t>-4,95; 0,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-72,06; -17,9</t>
+          <t>-3,97; 3,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-78,96; 38,11</t>
+          <t>-0,66; 10,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,45; 45,01</t>
+          <t>2,05; 12,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-72,77; 48,03</t>
+          <t>-2,63; 1,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-61,25; -0,92</t>
+          <t>-2,07; 2,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,54; 17,82</t>
+          <t>-1,78; 2,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-57,52; 3,89</t>
+          <t>0,34; 9,6</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 9,34</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 0,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 0,9</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 2,04</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 8,25</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 8,91</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-75,23%</t>
+          <t>-73,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-37,2%</t>
+          <t>-63,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-26,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-50,8%</t>
+          <t>170,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,92%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-29,5%</t>
+          <t>-29,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-67,13%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-27,45%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-60,85%</t>
+          <t>254,32%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>222,54%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-61,15%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-35,74%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-5,99%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>205,75%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>534,55%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 5,55</t>
+          <t>-100,0; 92,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 191,54</t>
+          <t>-100,0; 258,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 283,86</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-65,82; 1602,73</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-92,65; 9,05</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-74,24; 69,83</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-95,45; 18,11</t>
+          <t>-45,91; 2036,45</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-40,17; 1414,07</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-90,74; 73,57</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-83,71; 124,01</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-77,44; 258,69</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>15,13; 897,15</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>36,63; 2535,89</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,69</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-17,58</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-14,08</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,96</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-12,01</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-13,34</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-73,99; 54,29</t>
+          <t>-2,54; 1,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-78,29; 38,25</t>
+          <t>-2,8; 1,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-56,13; 75,35</t>
+          <t>-1,79; 3,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-41,06; 13,41</t>
+          <t>-3,24; 1,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 23,26</t>
+          <t>-3,48; 1,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 27,57</t>
+          <t>-3,18; 1,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 15,12</t>
+          <t>-3,29; 1,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-40,21; 16,45</t>
+          <t>-2,13; 3,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-33,0; 29,92</t>
+          <t>-3,0; 3,82</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 5,6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 0,98</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 1,07</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 2,48</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 1,78</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 2,5</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-24,44%</t>
+          <t>-27,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-49,43%</t>
+          <t>-20,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-32,73%</t>
+          <t>-38,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-13,86%</t>
+          <t>-42,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-14,9%</t>
+          <t>-21,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-29,87%</t>
+          <t>-21,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-33,18%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>74,58%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-23,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-20,68%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>26,33%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-17,55%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-87,61; 410,41</t>
+          <t>-87,86; 313,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-92,55; 205,01</t>
+          <t>-90,31; 324,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,96; 841,9</t>
+          <t>-80,49; 571,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-69,89; 61,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,23; 86,01</t>
+          <t>-100,0; 342,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,41; 96,54</t>
+          <t>-70,88; 130,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-66,63; 59,1</t>
+          <t>-70,76; 149,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,31; 56,05</t>
+          <t>-53,05; 278,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,52; 121,92</t>
+          <t>-66,74; 180,24</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-58,05; 702,22</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-68,93; 70,6</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-62,96; 86,48</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-42,28; 169,6</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-68,16; 107,5</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-57,73; 202,57</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,14</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,91</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24,71</t>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 33,38</t>
+          <t>-4,04; 2,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-26,65; 32,66</t>
+          <t>-3,07; 3,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 41,74</t>
+          <t>-0,59; 7,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 26,62</t>
+          <t>-3,81; 8,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 27,88</t>
+          <t>-10,28; 4,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,79; 64,53</t>
+          <t>-3,13; 2,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 20,66</t>
+          <t>-2,4; 3,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 24,35</t>
+          <t>-0,27; 7,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,85; 44,23</t>
+          <t>-4,07; 5,03</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 5,65</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 1,81</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 2,71</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 5,93</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 4,77</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-5,32; 3,52</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>-16,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>87,22%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>-25,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>107,72%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>58,9%</t>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-8,41%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>87,23%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-10,28%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-54,17; 104,44</t>
+          <t>-70,25; 113,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,71; 112,23</t>
+          <t>-55,17; 171,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 143,43</t>
+          <t>-14,71; 317,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,28; 124,67</t>
+          <t>-44,71; 157,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,2; 120,63</t>
+          <t>-65,86; 57,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,69; 298,93</t>
+          <t>-61,05; 110,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,81; 65,2</t>
+          <t>-48,38; 172,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 82,23</t>
+          <t>-10,59; 317,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,47; 155,04</t>
+          <t>-46,76; 117,33</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-49,37; 187,12</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-48,57; 73,87</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-36,35; 99,87</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>11,05; 235,1</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-32,38; 87,71</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-48,84; 55,27</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>20,12</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-12,71</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,82</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,4</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>19,92</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,6</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>16,31</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>14,63</t>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 53,6</t>
+          <t>-2,42; 4,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 18,79</t>
+          <t>-3,66; 2,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 39,35</t>
+          <t>-2,69; 4,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 35,22</t>
+          <t>-1,74; 7,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 38,48</t>
+          <t>-6,43; 4,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 31,42</t>
+          <t>-0,78; 4,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 37,48</t>
+          <t>0,11; 5,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 25,94</t>
+          <t>-0,23; 6,38</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 32,88</t>
+          <t>-2,92; 5,51</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 6,0</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 3,31</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 3,07</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 3,76</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 4,97</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 3,71</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>43,07%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-27,21%</t>
+          <t>-8,24%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>149,04%</t>
+          <t>60,23%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>180,94%</t>
+          <t>-18,06%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>123,57%</t>
+          <t>124,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>66,86%</t>
+          <t>188,14%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>199,63%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>59,97%</t>
+          <t>39,13%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>47,37%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>56,99%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>50,39%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>73,13%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>49,24%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 211,81</t>
+          <t>-57,46; 296,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-69,76; 85,4</t>
+          <t>-73,14; 159,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-36,91; 148,39</t>
+          <t>-59,86; 263,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 1003,79</t>
+          <t>-39,46; 367,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 1076,21</t>
+          <t>-65,88; 113,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 792,4</t>
+          <t>-52,52; 911,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 254,5</t>
+          <t>-27,99; 1300,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-28,33; 190,21</t>
+          <t>-42,76; 1396,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 228,85</t>
+          <t>-53,91; 303,53</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-47,46; 286,56</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-36,29; 266,5</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-37,12; 237,5</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-25,56; 264,66</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-25,99; 219,32</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-46,07; 99,83</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 32,8</t>
+          <t>-2,16; 5,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-18,95; -1,64</t>
+          <t>-4,23; -0,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 33,74</t>
+          <t>-0,84; 6,19</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 13,28</t>
+          <t>-4,85; 3,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 11,2</t>
+          <t>-3,41; 4,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 22,94</t>
+          <t>-1,26; 2,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 16,01</t>
+          <t>-1,64; 2,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 5,74</t>
+          <t>-1,35; 2,88</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 19,96</t>
+          <t>-2,22; 3,1</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 2,49</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 2,76</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-1,82; 0,96</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 3,04</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 2,41</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 2,28</t>
         </is>
       </c>
     </row>
@@ -1818,7 +2526,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1828,37 +2536,67 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>152,23%</t>
+          <t>116,14%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>-15,34%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>70,78%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>150,72%</t>
+          <t>85,3%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>69,67%</t>
+          <t>75,75%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-7,12%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>140,84%</t>
+          <t>57,17%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-17,68%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>40,1%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-21,98%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>78,8%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-0,86%</t>
         </is>
       </c>
     </row>
@@ -1881,37 +2619,67 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
+          <t>-64,16; —</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 288,01</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-80,41; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>-83,4; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
+      <c r="K27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-63,07; 862,53</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-39,2; 1012,98</t>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-73,8; 554,73</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-87,02; 229,9</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-62,17; 544,64</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-69,03; 266,91</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-70,03; 241,71</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>16,59</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>12,11</t>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 18,82</t>
+          <t>-1,21; 1,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 18,33</t>
+          <t>-1,23; 1,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,4; 30,95</t>
+          <t>0,21; 3,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 8,86</t>
+          <t>-1,02; 3,08</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 13,34</t>
+          <t>-1,6; 2,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 19,18</t>
+          <t>-1,07; 0,93</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 10,48</t>
+          <t>-0,53; 1,61</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 11,36</t>
+          <t>-0,06; 2,38</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,18; 21,77</t>
+          <t>-0,34; 2,89</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 2,99</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 0,86</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 1,07</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 2,47</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 2,33</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 2,25</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>63,45%</t>
+          <t>75,4%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>56,75%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>38,66%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>41,44%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2,52%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>15,09%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>66,49%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>31,01%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>23,56%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,62; 100,04</t>
+          <t>-40,34; 80,9</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 90,88</t>
+          <t>-41,38; 78,09</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>5,61; 162,15</t>
+          <t>1,8; 190,16</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 59,84</t>
+          <t>-22,2; 92,44</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-22,99; 84,14</t>
+          <t>-29,37; 83,14</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 132,8</t>
+          <t>-40,91; 61,43</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 53,9</t>
+          <t>-19,95; 103,51</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 60,17</t>
+          <t>-3,96; 148,47</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>11,2; 114,44</t>
+          <t>-9,67; 115,42</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-12,3; 133,55</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-28,91; 46,89</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-19,19; 61,93</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>22,4; 139,79</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 74,64</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-9,27; 72,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
